--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T13:26:31-05:00</t>
+    <t>2022-03-17T11:48:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDir-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -595,10 +595,24 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -610,10 +624,6 @@
               This provides needed flexibility for specifying whether a provider accepts new patients by location and network.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}new-patients-characteristics:If no new patients are accepted, no characteristics are allowed {extension('acceptingPatients').valueCodeableConcept.coding.exists(code = 'no') implies extension('characteristics').empty()}</t>
   </si>
@@ -621,7 +631,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -847,7 +857,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -879,7 +889,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -901,7 +911,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -916,13 +926,13 @@
     <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -1025,7 +1035,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -1038,14 +1048,14 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
     <t>Via Intermediary</t>
   </si>
   <si>
-    <t>A reference to an alternative point of contact (NatlDir-PractitionerRole, NatlDir-Organization, NatlDir-OrganizationAffiliation, or NatlDir-Location) for this organization</t>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
   </si>
   <si>
     <t>HealthcareService.telecom.system</t>
@@ -1444,7 +1454,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1771,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AK79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1804,7 +1814,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="78.1328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3635,7 +3645,7 @@
         <v>188</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3695,10 +3705,10 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -3712,14 +3722,14 @@
         <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>76</v>
@@ -3734,13 +3744,13 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3800,10 +3810,10 @@
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
@@ -3812,32 +3822,34 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>197</v>
@@ -3845,12 +3857,8 @@
       <c r="L20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3898,7 +3906,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3907,13 +3915,13 @@
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
@@ -3921,11 +3929,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3938,22 +3946,26 @@
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -4001,7 +4013,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4013,18 +4025,18 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4035,7 +4047,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -4044,16 +4056,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>84</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4104,41 +4116,41 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4150,17 +4162,15 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4197,31 +4207,31 @@
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>99</v>
@@ -4232,43 +4242,41 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>104</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4292,54 +4300,54 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4353,28 +4361,28 @@
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4399,13 +4407,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4423,7 +4431,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4438,15 +4446,15 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4460,7 +4468,7 @@
         <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4469,19 +4477,19 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4494,7 +4502,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>233</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4506,13 +4514,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4530,7 +4538,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4545,15 +4553,15 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4567,7 +4575,7 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4576,18 +4584,20 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4599,7 +4609,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4635,7 +4645,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4650,15 +4660,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4672,7 +4682,7 @@
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4681,15 +4691,17 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4702,7 +4714,7 @@
         <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>74</v>
@@ -4738,7 +4750,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4753,7 +4765,7 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>74</v>
@@ -4761,7 +4773,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4784,17 +4796,15 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>253</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -4843,7 +4853,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4858,15 +4868,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4874,44 +4884,42 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P30" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>262</v>
+        <v>74</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>74</v>
@@ -4950,7 +4958,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4965,15 +4973,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4981,7 +4989,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
@@ -4990,33 +4998,35 @@
         <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="Q31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>74</v>
@@ -5055,7 +5065,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5070,23 +5080,23 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>82</v>
@@ -5101,16 +5111,16 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>220</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5136,11 +5146,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5158,13 +5170,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -5173,26 +5185,26 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>278</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>83</v>
@@ -5204,15 +5216,17 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>74</v>
@@ -5241,7 +5255,7 @@
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5259,7 +5273,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5274,19 +5288,19 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>74</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5305,13 +5319,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5338,11 +5352,11 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5360,7 +5374,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5375,7 +5389,7 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5383,7 +5397,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5406,13 +5420,13 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5439,13 +5453,11 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -5463,7 +5475,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5478,15 +5490,15 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5497,7 +5509,7 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>83</v>
@@ -5509,13 +5521,13 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5566,13 +5578,13 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>74</v>
@@ -5581,15 +5593,15 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>74</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5615,14 +5627,12 @@
         <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5671,7 +5681,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5686,15 +5696,15 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5708,24 +5718,26 @@
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5774,7 +5786,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5789,7 +5801,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5797,7 +5809,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5817,16 +5829,16 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5877,7 +5889,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5892,15 +5904,15 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5911,29 +5923,27 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5982,13 +5992,13 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
@@ -5997,15 +6007,15 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6016,10 +6026,10 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>74</v>
@@ -6028,15 +6038,17 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -6085,22 +6097,22 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>98</v>
+        <v>317</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>322</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6108,18 +6120,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>74</v>
@@ -6131,17 +6143,15 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
@@ -6178,31 +6188,31 @@
         <v>74</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>99</v>
@@ -6211,15 +6221,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6229,7 +6237,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6238,15 +6246,17 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>323</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>324</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
@@ -6283,16 +6293,16 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>109</v>
@@ -6310,7 +6320,7 @@
         <v>110</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6318,10 +6328,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>74</v>
@@ -6343,13 +6353,13 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6423,9 +6433,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6434,7 +6446,7 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>83</v>
@@ -6443,10 +6455,10 @@
         <v>74</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>158</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>331</v>
@@ -6479,13 +6491,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>334</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6503,22 +6515,22 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>335</v>
+        <v>109</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6526,7 +6538,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6549,20 +6561,16 @@
         <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
       </c>
@@ -6586,13 +6594,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>74</v>
+        <v>336</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6610,7 +6618,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6619,21 +6627,21 @@
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6647,28 +6655,28 @@
         <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6693,13 +6701,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>350</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6717,7 +6725,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6732,7 +6740,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6740,7 +6748,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6757,24 +6765,26 @@
         <v>74</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>355</v>
+        <v>158</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6798,13 +6808,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6822,7 +6832,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6837,7 +6847,7 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>356</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6845,7 +6855,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6868,15 +6878,17 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>244</v>
+        <v>358</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6925,7 +6937,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6940,15 +6952,15 @@
         <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6959,29 +6971,27 @@
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H50" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7030,13 +7040,13 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
@@ -7045,15 +7055,15 @@
         <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7067,7 +7077,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>74</v>
@@ -7076,16 +7086,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7111,13 +7121,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>372</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7135,7 +7145,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7150,7 +7160,7 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
@@ -7158,7 +7168,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7181,15 +7191,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7214,13 +7226,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>375</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7238,7 +7250,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7253,7 +7265,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>74</v>
+        <v>378</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7261,7 +7273,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7272,7 +7284,7 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>74</v>
@@ -7284,13 +7296,13 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>96</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7341,22 +7353,22 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>98</v>
+        <v>379</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7364,18 +7376,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>74</v>
@@ -7387,17 +7399,15 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7446,19 +7456,19 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>99</v>
@@ -7469,11 +7479,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7486,26 +7496,24 @@
         <v>74</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7553,7 +7561,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7568,7 +7576,7 @@
         <v>110</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7576,39 +7584,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="M56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7632,10 +7644,10 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>390</v>
+        <v>74</v>
       </c>
       <c r="Y56" t="s" s="2">
         <v>74</v>
@@ -7656,22 +7668,22 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>375</v>
+        <v>181</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7679,7 +7691,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7702,17 +7714,15 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>394</v>
-      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -7737,10 +7747,10 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>393</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>74</v>
@@ -7761,7 +7771,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7776,7 +7786,7 @@
         <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7784,7 +7794,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7795,7 +7805,7 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7807,16 +7817,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>220</v>
+        <v>308</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7842,13 +7852,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>400</v>
+        <v>74</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>401</v>
+        <v>74</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -7866,13 +7876,13 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
@@ -7881,7 +7891,7 @@
         <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7889,7 +7899,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7912,16 +7922,16 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7950,10 +7960,10 @@
         <v>148</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>74</v>
+        <v>404</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -7971,7 +7981,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7986,7 +7996,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -7994,7 +8004,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8017,16 +8027,16 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8052,13 +8062,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>163</v>
+        <v>410</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8076,7 +8086,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8091,7 +8101,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>74</v>
+        <v>405</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8099,7 +8109,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8122,15 +8132,17 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8155,13 +8167,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>415</v>
+        <v>163</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>416</v>
+        <v>164</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8179,7 +8191,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8194,15 +8206,15 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>402</v>
+        <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8213,10 +8225,10 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>74</v>
@@ -8225,13 +8237,13 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8258,13 +8270,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>74</v>
+        <v>418</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>74</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8282,13 +8294,13 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8297,7 +8309,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8316,7 +8328,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>83</v>
@@ -8328,7 +8340,7 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>377</v>
+        <v>260</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>421</v>
@@ -8336,9 +8348,7 @@
       <c r="L63" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>423</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8393,7 +8403,7 @@
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -8402,15 +8412,15 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8421,10 +8431,10 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8433,15 +8443,17 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>96</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8490,22 +8502,22 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>98</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -8513,18 +8525,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
@@ -8536,17 +8548,15 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8595,19 +8605,19 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>99</v>
@@ -8618,11 +8628,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8635,26 +8645,24 @@
         <v>74</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N66" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>74</v>
       </c>
@@ -8702,7 +8710,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -8717,19 +8725,19 @@
         <v>110</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8739,25 +8747,29 @@
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H67" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H67" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I67" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8781,13 +8793,13 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>431</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
@@ -8805,7 +8817,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>428</v>
+        <v>389</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8817,10 +8829,10 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>424</v>
+        <v>181</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8828,7 +8840,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8839,7 +8851,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>83</v>
@@ -8851,13 +8863,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>257</v>
+        <v>158</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8884,13 +8896,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>74</v>
+        <v>435</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8908,13 +8920,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -8923,7 +8935,7 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8954,17 +8966,15 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="M69" s="2"/>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -9028,7 +9038,7 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -9036,7 +9046,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9059,16 +9069,16 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9118,7 +9128,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9133,7 +9143,7 @@
         <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -9152,7 +9162,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9164,7 +9174,7 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>445</v>
@@ -9172,7 +9182,9 @@
       <c r="L71" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M71" s="2"/>
+      <c r="M71" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9227,7 +9239,7 @@
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -9236,13 +9248,13 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>447</v>
       </c>
@@ -9255,10 +9267,10 @@
         <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>74</v>
@@ -9267,13 +9279,13 @@
         <v>74</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>84</v>
+        <v>380</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>96</v>
+        <v>448</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>97</v>
+        <v>449</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9324,22 +9336,22 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>98</v>
+        <v>447</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
@@ -9347,18 +9359,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>74</v>
@@ -9370,17 +9382,15 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M73" s="2"/>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>74</v>
@@ -9429,19 +9439,19 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>99</v>
@@ -9452,11 +9462,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>383</v>
+        <v>101</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9469,26 +9479,24 @@
         <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J74" t="s" s="2">
         <v>102</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>385</v>
+        <v>104</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="N74" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
       </c>
@@ -9536,7 +9544,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>386</v>
+        <v>109</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -9551,47 +9559,51 @@
         <v>110</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>74</v>
+        <v>386</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H75" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H75" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I75" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9639,22 +9651,22 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>450</v>
+        <v>389</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -9670,7 +9682,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>82</v>
@@ -9685,7 +9697,7 @@
         <v>74</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>454</v>
@@ -9745,7 +9757,7 @@
         <v>453</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>82</v>
@@ -9757,7 +9769,7 @@
         <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>424</v>
+        <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -9788,7 +9800,7 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>84</v>
+        <v>247</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>457</v>
@@ -9860,7 +9872,7 @@
         <v>94</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>74</v>
@@ -9879,7 +9891,7 @@
         <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>83</v>
@@ -9891,13 +9903,13 @@
         <v>74</v>
       </c>
       <c r="J78" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K78" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K78" t="s" s="2">
+      <c r="L78" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9954,7 +9966,7 @@
         <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>74</v>
@@ -9963,14 +9975,117 @@
         <v>94</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AK79" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK78">
+  <autoFilter ref="A1:AK79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9980,7 +10095,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI77">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T11:48:49-04:00</t>
+    <t>2022-03-18T15:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T15:39:35-04:00</t>
+    <t>2022-03-21T10:14:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2624" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="420">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T10:14:10-04:00</t>
+    <t>2022-04-05T18:56:51-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -676,481 +676,342 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>HealthcareService.identifier.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.type</t>
+    <t>HealthcareService.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this HealthcareService record is in active use</t>
+  </si>
+  <si>
+    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>HealthcareService.providedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that provides this service</t>
+  </si>
+  <si>
+    <t>The organization that provides this healthcare service.</t>
+  </si>
+  <si>
+    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
+  </si>
+  <si>
+    <t>.scopingRole.Organization</t>
+  </si>
+  <si>
+    <t>HealthcareService.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service category
+</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.period</t>
+    <t>Broad category of service being performed or delivered</t>
+  </si>
+  <si>
+    <t>Identifies the broad category of service being performed or delivered.</t>
+  </si>
+  <si>
+    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>HealthcareService.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service type
+</t>
+  </si>
+  <si>
+    <t>Type of service that may be delivered or performed</t>
+  </si>
+  <si>
+    <t>The specific type of service that may be delivered or performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
+  </si>
+  <si>
+    <t>HealthcareService.specialty</t>
+  </si>
+  <si>
+    <t>Specialties handled by the HealthcareService</t>
+  </si>
+  <si>
+    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+  </si>
+  <si>
+    <t>HealthcareService.location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+</t>
+  </si>
+  <si>
+    <t>Location(s) where service may be provided</t>
+  </si>
+  <si>
+    <t>The location(s) where this healthcare service may be provided.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC]</t>
+  </si>
+  <si>
+    <t>FiveWs.where[x]</t>
+  </si>
+  <si>
+    <t>HealthcareService.name</t>
+  </si>
+  <si>
+    <t>Description of service as presented to a consumer while searching</t>
+  </si>
+  <si>
+    <t>Further description of the service as it would be presented to a consumer while searching.</t>
+  </si>
+  <si>
+    <t>.name</t>
+  </si>
+  <si>
+    <t>HealthcareService.comment</t>
+  </si>
+  <si>
+    <t>Additional description and/or any specific issues not covered elsewhere</t>
+  </si>
+  <si>
+    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
+  </si>
+  <si>
+    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
+  </si>
+  <si>
+    <t>.location.role[classCode=SDLOC].desc</t>
+  </si>
+  <si>
+    <t>HealthcareService.extraDetails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields</t>
+  </si>
+  <si>
+    <t>Extra details about the service that can't be placed in the other fields.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
+  </si>
+  <si>
+    <t>HealthcareService.photo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>Facilitates quick identification of the service</t>
+  </si>
+  <si>
+    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
+  </si>
+  <si>
+    <t>.actrelationship[typeCode=SBJ].observation.value</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactPoint
+</t>
+  </si>
+  <si>
+    <t>Contacts related to the healthcare service</t>
+  </si>
+  <si>
+    <t>List of contacts related to this specific healthcare service.</t>
+  </si>
+  <si>
+    <t>If this is empty, then refer to the location's contacts.</t>
+  </si>
+  <si>
+    <t>.telecom</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.extension</t>
+  </si>
+  <si>
+    <t>contactpoint-availabletime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+</t>
+  </si>
+  <si>
+    <t>Contactpoint Availabletime</t>
+  </si>
+  <si>
+    <t>An extension representing the days and times a contact point is available</t>
+  </si>
+  <si>
+    <t>via-intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+</t>
+  </si>
+  <si>
+    <t>Via Intermediary</t>
+  </si>
+  <si>
+    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>HealthcareService.telecom.period</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>HealthcareService.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this HealthcareService record is in active use</t>
-  </si>
-  <si>
-    <t>This flag is used to mark the record to not be used. This is not used when a center is closed for maintenance, or for holidays, the notAvailable period is to be used for this.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>HealthcareService.providedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that provides this service</t>
-  </si>
-  <si>
-    <t>The organization that provides this healthcare service.</t>
-  </si>
-  <si>
-    <t>This property is recommended to be the same as the Location's managingOrganization, and if not provided should be interpreted as such. If the Location does not have a managing Organization, then this property should be populated.</t>
-  </si>
-  <si>
-    <t>.scopingRole.Organization</t>
-  </si>
-  <si>
-    <t>HealthcareService.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service category
-</t>
-  </si>
-  <si>
-    <t>Broad category of service being performed or delivered</t>
-  </si>
-  <si>
-    <t>Identifies the broad category of service being performed or delivered.</t>
-  </si>
-  <si>
-    <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>HealthcareService.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service type
-</t>
-  </si>
-  <si>
-    <t>Type of service that may be delivered or performed</t>
-  </si>
-  <si>
-    <t>The specific type of service that may be delivered or performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
-  </si>
-  <si>
-    <t>HealthcareService.specialty</t>
-  </si>
-  <si>
-    <t>Specialties handled by the HealthcareService</t>
-  </si>
-  <si>
-    <t>Collection of specialties handled by the service site. This is more of a medical term.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
-  </si>
-  <si>
-    <t>HealthcareService.location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
-</t>
-  </si>
-  <si>
-    <t>Location(s) where service may be provided</t>
-  </si>
-  <si>
-    <t>The location(s) where this healthcare service may be provided.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC]</t>
-  </si>
-  <si>
-    <t>FiveWs.where[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.name</t>
-  </si>
-  <si>
-    <t>Description of service as presented to a consumer while searching</t>
-  </si>
-  <si>
-    <t>Further description of the service as it would be presented to a consumer while searching.</t>
-  </si>
-  <si>
-    <t>.name</t>
-  </si>
-  <si>
-    <t>HealthcareService.comment</t>
-  </si>
-  <si>
-    <t>Additional description and/or any specific issues not covered elsewhere</t>
-  </si>
-  <si>
-    <t>Any additional description of the service and/or any specific issues not covered by the other attributes, which can be displayed as further detail under the serviceName.</t>
-  </si>
-  <si>
-    <t>Would expect that a user would not see this information on a search results, and it would only be available when viewing the complete details of the service.</t>
-  </si>
-  <si>
-    <t>.location.role[classCode=SDLOC].desc</t>
-  </si>
-  <si>
-    <t>HealthcareService.extraDetails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields</t>
-  </si>
-  <si>
-    <t>Extra details about the service that can't be placed in the other fields.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].text</t>
-  </si>
-  <si>
-    <t>HealthcareService.photo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attachment
-</t>
-  </si>
-  <si>
-    <t>Facilitates quick identification of the service</t>
-  </si>
-  <si>
-    <t>If there is a photo/symbol associated with this HealthcareService, it may be included here to facilitate quick identification of the service in a list.</t>
-  </si>
-  <si>
-    <t>.actrelationship[typeCode=SBJ].observation.value</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactPoint
-</t>
-  </si>
-  <si>
-    <t>Contacts related to the healthcare service</t>
-  </si>
-  <si>
-    <t>List of contacts related to this specific healthcare service.</t>
-  </si>
-  <si>
-    <t>If this is empty, then refer to the location's contacts.</t>
-  </si>
-  <si>
-    <t>.telecom</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.extension</t>
-  </si>
-  <si>
-    <t>contactpoint-availabletime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
-</t>
-  </si>
-  <si>
-    <t>Contactpoint Availabletime</t>
-  </si>
-  <si>
-    <t>An extension representing the days and times a contact point is available</t>
-  </si>
-  <si>
-    <t>via-intermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
-</t>
-  </si>
-  <si>
-    <t>Via Intermediary</t>
-  </si>
-  <si>
-    <t>A reference to an alternative point of contact (NatlDirEndpointQry-PractitionerRole, NatlDirEndpointQry-Organization, NatlDirEndpointQry-OrganizationAffiliation, or NatlDirEndpointQry-Location) for this organization</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>HealthcareService.telecom.period</t>
   </si>
   <si>
     <t>Time period when the contact point was/is in use</t>
@@ -1781,7 +1642,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK79"/>
+  <dimension ref="A1:AK71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1825,7 +1686,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3612,7 +3473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>182</v>
       </c>
@@ -3630,7 +3491,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>74</v>
@@ -3822,7 +3683,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>182</v>
       </c>
@@ -3840,7 +3701,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -4034,7 +3895,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>204</v>
       </c>
@@ -4050,7 +3911,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -4147,7 +4008,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>82</v>
@@ -4156,31 +4017,35 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="Q23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4219,7 +4084,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4231,50 +4096,50 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4312,78 +4177,76 @@
         <v>74</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>227</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4407,13 +4270,11 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4431,13 +4292,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4446,26 +4307,26 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>74</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>83</v>
@@ -4477,20 +4338,16 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4516,11 +4373,9 @@
       <c r="W26" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="X26" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4538,13 +4393,13 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4553,15 +4408,15 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4572,10 +4427,10 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4584,20 +4439,16 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
       </c>
@@ -4609,7 +4460,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4621,13 +4472,11 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>244</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4645,13 +4494,13 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4660,7 +4509,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4668,7 +4517,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4679,7 +4528,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4691,17 +4540,15 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>84</v>
+        <v>246</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4714,7 +4561,7 @@
         <v>74</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>74</v>
@@ -4750,13 +4597,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4765,15 +4612,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4787,7 +4634,7 @@
         <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -4796,13 +4643,13 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4853,7 +4700,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4868,7 +4715,7 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
@@ -4876,7 +4723,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4899,16 +4746,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>253</v>
+        <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4958,7 +4805,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4973,15 +4820,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4989,44 +4836,40 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M31" t="s" s="2">
         <v>263</v>
       </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P31" t="s" s="2">
-        <v>264</v>
-      </c>
+      <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>74</v>
@@ -5065,7 +4908,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5080,15 +4923,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5102,7 +4945,7 @@
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -5111,17 +4954,15 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>74</v>
@@ -5170,7 +5011,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5185,47 +5026,47 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5251,11 +5092,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5273,7 +5116,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5288,44 +5131,44 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>281</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5352,11 +5195,13 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X34" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y34" t="s" s="2">
-        <v>286</v>
+        <v>74</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -5374,34 +5219,34 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>282</v>
+        <v>98</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5411,24 +5256,26 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5453,29 +5300,31 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>109</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5487,20 +5336,22 @@
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5512,22 +5363,22 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5578,7 +5429,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5590,20 +5441,22 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>297</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5612,25 +5465,25 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5681,30 +5534,30 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>298</v>
+        <v>109</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5718,7 +5571,7 @@
         <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
@@ -5727,17 +5580,15 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5762,13 +5613,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>289</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>290</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5786,7 +5637,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -5795,13 +5646,13 @@
         <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5809,7 +5660,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5829,19 +5680,23 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5889,7 +5744,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -5904,7 +5759,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5912,7 +5767,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5929,22 +5784,26 @@
         <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>313</v>
+        <v>158</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5968,13 +5827,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>306</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>307</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5992,7 +5851,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6007,15 +5866,15 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6026,28 +5885,28 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I41" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6097,13 +5956,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6112,7 +5971,7 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -6120,7 +5979,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6140,16 +5999,16 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>84</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>97</v>
+        <v>319</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6200,7 +6059,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>98</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6212,22 +6071,22 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>321</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6237,7 +6096,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>74</v>
@@ -6246,16 +6105,16 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>323</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6293,19 +6152,19 @@
         <v>74</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>109</v>
+        <v>322</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6317,10 +6176,10 @@
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>326</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
@@ -6328,11 +6187,9 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>74</v>
       </c>
@@ -6353,15 +6210,17 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6386,13 +6245,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>74</v>
+        <v>329</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>74</v>
+        <v>331</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6410,7 +6269,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>109</v>
+        <v>327</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6422,10 +6281,10 @@
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>74</v>
+        <v>332</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
@@ -6433,11 +6292,9 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>74</v>
       </c>
@@ -6458,13 +6315,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6515,7 +6372,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>109</v>
+        <v>333</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6527,7 +6384,7 @@
         <v>74</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>74</v>
@@ -6536,9 +6393,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6552,22 +6409,22 @@
         <v>82</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>334</v>
+        <v>96</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>97</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6594,13 +6451,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6618,7 +6475,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6627,57 +6484,55 @@
         <v>82</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>339</v>
+        <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>342</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
       </c>
@@ -6725,22 +6580,22 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>346</v>
+        <v>109</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6748,18 +6603,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>74</v>
@@ -6771,19 +6626,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>352</v>
+        <v>202</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -6808,13 +6663,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -6832,22 +6687,22 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>356</v>
+        <v>181</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6855,7 +6710,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6875,20 +6730,18 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>358</v>
+        <v>227</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
@@ -6913,10 +6766,10 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>74</v>
+        <v>347</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>74</v>
@@ -6937,7 +6790,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6952,7 +6805,7 @@
         <v>94</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>332</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6960,7 +6813,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6980,18 +6833,20 @@
         <v>74</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7040,7 +6895,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7055,7 +6910,7 @@
         <v>94</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
@@ -7063,7 +6918,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7086,16 +6941,16 @@
         <v>74</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>293</v>
+        <v>227</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7121,13 +6976,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>74</v>
+        <v>357</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>74</v>
+        <v>358</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7145,7 +7000,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7160,15 +7015,15 @@
         <v>94</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7182,7 +7037,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7191,16 +7046,16 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7229,10 +7084,10 @@
         <v>148</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>377</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7250,7 +7105,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7265,15 +7120,15 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7287,7 +7142,7 @@
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7296,15 +7151,17 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7329,13 +7186,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7353,7 +7210,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7374,9 +7231,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7387,10 +7244,10 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>74</v>
@@ -7399,13 +7256,13 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>84</v>
+        <v>227</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>96</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>97</v>
+        <v>371</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7432,13 +7289,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7456,22 +7313,22 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>98</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7479,18 +7336,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7502,17 +7359,15 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>375</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7561,22 +7416,22 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7584,11 +7439,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>386</v>
+        <v>74</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7601,26 +7456,24 @@
         <v>74</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7668,7 +7521,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -7680,10 +7533,10 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>181</v>
+        <v>381</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>74</v>
@@ -7691,7 +7544,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7714,13 +7567,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>223</v>
+        <v>84</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>391</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>97</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7747,10 +7600,10 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>393</v>
+        <v>74</v>
       </c>
       <c r="Y57" t="s" s="2">
         <v>74</v>
@@ -7771,7 +7624,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>390</v>
+        <v>98</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -7783,10 +7636,10 @@
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7794,18 +7647,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7817,16 +7670,16 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>395</v>
+        <v>103</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>396</v>
+        <v>104</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>397</v>
+        <v>105</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -7876,22 +7729,22 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7899,11 +7752,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>74</v>
+        <v>340</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7916,24 +7769,26 @@
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>401</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7957,13 +7812,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>403</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>404</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -7981,7 +7836,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7993,10 +7848,10 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>405</v>
+        <v>181</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8004,7 +7859,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8027,17 +7882,15 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>223</v>
+        <v>158</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -8062,13 +7915,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>74</v>
+        <v>389</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8086,7 +7939,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8101,7 +7954,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8109,7 +7962,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8120,7 +7973,7 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8132,17 +7985,15 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8167,13 +8018,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8191,13 +8042,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8206,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>74</v>
+        <v>381</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8214,7 +8065,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8225,7 +8076,7 @@
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8237,15 +8088,17 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>223</v>
+        <v>394</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>74</v>
@@ -8270,13 +8123,13 @@
         <v>74</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>418</v>
+        <v>74</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>74</v>
@@ -8294,13 +8147,13 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>393</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
@@ -8309,15 +8162,15 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8331,7 +8184,7 @@
         <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>74</v>
@@ -8340,15 +8193,17 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>260</v>
+        <v>394</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8397,7 +8252,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8412,15 +8267,15 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8434,7 +8289,7 @@
         <v>76</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>74</v>
@@ -8443,17 +8298,15 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8502,7 +8355,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8517,7 +8370,7 @@
         <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -8525,7 +8378,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8628,7 +8481,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8733,11 +8586,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8759,10 +8612,10 @@
         <v>102</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>105</v>
@@ -8817,7 +8670,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8838,9 +8691,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8848,13 +8701,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>74</v>
@@ -8863,13 +8716,13 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8896,13 +8749,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>435</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8920,13 +8773,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -8935,15 +8788,15 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8957,7 +8810,7 @@
         <v>82</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>74</v>
@@ -8966,13 +8819,13 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>260</v>
+        <v>317</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9023,7 +8876,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9038,15 +8891,15 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9060,7 +8913,7 @@
         <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>74</v>
@@ -9069,17 +8922,15 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>440</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9128,7 +8979,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9143,7 +8994,7 @@
         <v>94</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
@@ -9151,7 +9002,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9162,7 +9013,7 @@
         <v>75</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>83</v>
@@ -9174,17 +9025,15 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9233,13 +9082,13 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -9248,844 +9097,14 @@
         <v>94</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK79" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK79">
+  <autoFilter ref="A1:AK71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10095,7 +9114,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:56:51-04:00</t>
+    <t>2022-06-17T09:52:28-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2359" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="432">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T09:52:28-04:00</t>
+    <t>2022-07-25T12:57:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -639,6 +639,45 @@
   </si>
   <si>
     <t>An extension describing the service delivery method.   If service delivery is virtual, one or more delivery modalities should be specified.</t>
+  </si>
+  <si>
+    <t>paymentaccepted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+</t>
+  </si>
+  <si>
+    <t>Payment Accepted</t>
+  </si>
+  <si>
+    <t>Methods of payment that can be used for a healthcare service.</t>
+  </si>
+  <si>
+    <t>requiredDocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/requiredDocument}
+</t>
+  </si>
+  <si>
+    <t>Required Document</t>
+  </si>
+  <si>
+    <t>Documents that are required in order to access or use services (eg. Gov't issued ID, passport)</t>
+  </si>
+  <si>
+    <t>fundingSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+</t>
+  </si>
+  <si>
+    <t>Funding Source</t>
+  </si>
+  <si>
+    <t>The sources of funding for a service or organization</t>
   </si>
   <si>
     <t>HealthcareService.modifierExtension</t>
@@ -1642,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK71"/>
+  <dimension ref="A1:AK74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,10 +1690,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.30859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1670,20 +1709,20 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.828125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="74.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
@@ -3790,11 +3829,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3807,26 +3848,22 @@
         <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N21" t="s" s="2">
         <v>202</v>
       </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3874,7 +3911,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3883,23 +3920,25 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3911,22 +3950,22 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3977,7 +4016,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3986,66 +4025,64 @@
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>209</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P23" t="s" s="2">
-        <v>215</v>
-      </c>
+      <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>74</v>
@@ -4084,64 +4121,66 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>189</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4189,22 +4228,22 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4212,18 +4251,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>83</v>
@@ -4235,17 +4274,15 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4270,11 +4307,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4292,7 +4331,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4307,56 +4346,60 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>225</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="Q26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>74</v>
+        <v>228</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>74</v>
@@ -4371,11 +4414,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y26" t="s" s="2">
-        <v>238</v>
+        <v>74</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4393,13 +4438,13 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4408,15 +4453,15 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>74</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4427,7 +4472,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>83</v>
@@ -4439,15 +4484,17 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4472,11 +4519,13 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4494,13 +4543,13 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4509,7 +4558,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4517,18 +4566,18 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4540,15 +4589,17 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4573,13 +4624,11 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X28" s="2"/>
       <c r="Y28" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4597,7 +4646,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4612,26 +4661,26 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>83</v>
@@ -4643,13 +4692,13 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4676,13 +4725,11 @@
         <v>74</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X29" s="2"/>
       <c r="Y29" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4700,13 +4747,13 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4715,15 +4762,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4734,10 +4781,10 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4746,17 +4793,15 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4781,13 +4826,11 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4805,13 +4848,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4820,15 +4863,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4839,25 +4882,25 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4908,13 +4951,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4923,15 +4966,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4945,7 +4988,7 @@
         <v>82</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4954,13 +4997,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5011,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5026,7 +5069,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5034,7 +5077,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5045,7 +5088,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>74</v>
@@ -5054,19 +5097,19 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>271</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5116,13 +5159,13 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>74</v>
@@ -5131,7 +5174,7 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5139,7 +5182,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5162,13 +5205,13 @@
         <v>74</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>84</v>
+        <v>273</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>96</v>
+        <v>274</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5219,7 +5262,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>98</v>
+        <v>272</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5231,10 +5274,10 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5246,14 +5289,14 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5262,20 +5305,18 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>102</v>
+        <v>278</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5312,34 +5353,34 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>109</v>
+        <v>277</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>281</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>74</v>
@@ -5347,11 +5388,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5372,15 +5411,17 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
@@ -5429,7 +5470,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5441,10 +5482,10 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>74</v>
@@ -5452,11 +5493,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5465,7 +5504,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
@@ -5477,13 +5516,13 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>97</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5534,22 +5573,22 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>74</v>
@@ -5557,18 +5596,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5577,18 +5616,20 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>287</v>
+        <v>103</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5613,46 +5654,46 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>290</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>293</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5660,9 +5701,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5671,7 +5714,7 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>74</v>
@@ -5680,23 +5723,19 @@
         <v>74</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5744,22 +5783,22 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>300</v>
+        <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5767,9 +5806,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5778,32 +5819,28 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
       </c>
@@ -5827,13 +5864,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>306</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>307</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5851,22 +5888,22 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5874,7 +5911,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5897,17 +5934,15 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>311</v>
+        <v>158</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
@@ -5932,13 +5967,13 @@
         <v>74</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>74</v>
+        <v>302</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>74</v>
@@ -5956,7 +5991,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -5965,13 +6000,13 @@
         <v>82</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>74</v>
+        <v>304</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>305</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5979,7 +6014,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6002,16 +6037,20 @@
         <v>83</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>317</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6059,7 +6098,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6074,15 +6113,15 @@
         <v>94</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6093,30 +6132,32 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I43" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6140,13 +6181,13 @@
         <v>74</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>74</v>
+        <v>318</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>74</v>
@@ -6164,13 +6205,13 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
@@ -6179,15 +6220,15 @@
         <v>94</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6198,28 +6239,28 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>227</v>
+        <v>323</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6245,13 +6286,13 @@
         <v>74</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>74</v>
@@ -6275,7 +6316,7 @@
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
@@ -6284,15 +6325,15 @@
         <v>94</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6303,25 +6344,25 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6372,13 +6413,13 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>74</v>
@@ -6387,15 +6428,15 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>74</v>
+        <v>333</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6406,10 +6447,10 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>74</v>
@@ -6418,15 +6459,17 @@
         <v>74</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>74</v>
@@ -6475,34 +6518,34 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>98</v>
+        <v>334</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6512,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>74</v>
@@ -6521,16 +6564,16 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>102</v>
+        <v>239</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>103</v>
+        <v>340</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>104</v>
+        <v>341</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>105</v>
+        <v>342</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6556,13 +6599,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>341</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6580,7 +6623,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>109</v>
+        <v>339</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -6592,22 +6635,22 @@
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>344</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6617,29 +6660,25 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6687,7 +6726,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -6699,10 +6738,10 @@
         <v>74</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6710,7 +6749,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6733,13 +6772,13 @@
         <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>227</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>346</v>
+        <v>97</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6766,10 +6805,10 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>347</v>
+        <v>74</v>
       </c>
       <c r="Y49" t="s" s="2">
         <v>74</v>
@@ -6790,7 +6829,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -6802,10 +6841,10 @@
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>74</v>
@@ -6813,18 +6852,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -6836,16 +6875,16 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>104</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>351</v>
+        <v>105</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6895,34 +6934,34 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>348</v>
+        <v>109</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>352</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6932,27 +6971,29 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="H51" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L51" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="M51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -6976,13 +7017,13 @@
         <v>74</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>357</v>
+        <v>74</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>358</v>
+        <v>74</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>74</v>
@@ -7000,7 +7041,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7012,18 +7053,18 @@
         <v>74</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>359</v>
+        <v>181</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7034,10 +7075,10 @@
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>74</v>
@@ -7046,17 +7087,15 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7084,7 +7123,7 @@
         <v>148</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="Y52" t="s" s="2">
         <v>74</v>
@@ -7105,13 +7144,13 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>74</v>
@@ -7120,15 +7159,15 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7139,10 +7178,10 @@
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>74</v>
@@ -7151,16 +7190,16 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7186,13 +7225,13 @@
         <v>74</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>74</v>
@@ -7210,13 +7249,13 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>74</v>
@@ -7225,7 +7264,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7233,7 +7272,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7256,15 +7295,17 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
@@ -7292,10 +7333,10 @@
         <v>148</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7313,7 +7354,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7328,15 +7369,15 @@
         <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7347,10 +7388,10 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>74</v>
@@ -7359,15 +7400,17 @@
         <v>74</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
@@ -7392,10 +7435,10 @@
         <v>74</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>74</v>
+        <v>376</v>
       </c>
       <c r="Y55" t="s" s="2">
         <v>74</v>
@@ -7416,13 +7459,13 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7431,13 +7474,13 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
         <v>377</v>
       </c>
@@ -7453,7 +7496,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>74</v>
@@ -7462,7 +7505,7 @@
         <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>334</v>
+        <v>239</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>378</v>
@@ -7497,13 +7540,13 @@
         <v>74</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>74</v>
@@ -7536,15 +7579,15 @@
         <v>94</v>
       </c>
       <c r="AJ56" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7555,10 +7598,10 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -7567,13 +7610,13 @@
         <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>84</v>
+        <v>239</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>96</v>
+        <v>382</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>97</v>
+        <v>383</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7600,13 +7643,13 @@
         <v>74</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>74</v>
+        <v>384</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>74</v>
+        <v>385</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>74</v>
@@ -7624,22 +7667,22 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>98</v>
+        <v>381</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>74</v>
@@ -7647,18 +7690,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>74</v>
@@ -7670,17 +7713,15 @@
         <v>74</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>102</v>
+        <v>223</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>74</v>
@@ -7729,22 +7770,22 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>109</v>
+        <v>386</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
@@ -7752,11 +7793,11 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -7769,26 +7810,24 @@
         <v>74</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>342</v>
+        <v>391</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>74</v>
       </c>
@@ -7836,7 +7875,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -7848,10 +7887,10 @@
         <v>74</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -7859,7 +7898,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7870,7 +7909,7 @@
         <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>74</v>
@@ -7882,13 +7921,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>386</v>
+        <v>96</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>387</v>
+        <v>97</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7915,13 +7954,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>243</v>
+        <v>74</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>389</v>
+        <v>74</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -7939,22 +7978,22 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>385</v>
+        <v>98</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -7962,18 +8001,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -7985,15 +8024,17 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>74</v>
@@ -8042,22 +8083,22 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8065,41 +8106,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>394</v>
+        <v>102</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8147,22 +8190,22 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8170,7 +8213,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8181,7 +8224,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8193,17 +8236,15 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>394</v>
+        <v>158</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8228,13 +8269,13 @@
         <v>74</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>74</v>
+        <v>400</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>74</v>
+        <v>401</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>74</v>
@@ -8252,13 +8293,13 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
@@ -8267,7 +8308,7 @@
         <v>94</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>74</v>
@@ -8275,7 +8316,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8286,7 +8327,7 @@
         <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>74</v>
@@ -8298,13 +8339,13 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8355,13 +8396,13 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>74</v>
@@ -8370,7 +8411,7 @@
         <v>94</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>74</v>
@@ -8378,7 +8419,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8401,15 +8442,17 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>96</v>
+        <v>407</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -8458,7 +8501,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>98</v>
+        <v>405</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -8470,10 +8513,10 @@
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
@@ -8481,18 +8524,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>74</v>
@@ -8504,16 +8547,16 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>102</v>
+        <v>406</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>103</v>
+        <v>411</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>104</v>
+        <v>412</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8563,22 +8606,22 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>393</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -8586,11 +8629,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8603,26 +8646,22 @@
         <v>74</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>341</v>
+        <v>414</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>74</v>
       </c>
@@ -8670,7 +8709,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>343</v>
+        <v>413</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -8682,10 +8721,10 @@
         <v>74</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>181</v>
+        <v>393</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8693,7 +8732,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8701,7 +8740,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>82</v>
@@ -8719,10 +8758,10 @@
         <v>84</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>408</v>
+        <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>409</v>
+        <v>97</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8773,10 +8812,10 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>407</v>
+        <v>98</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>82</v>
@@ -8785,7 +8824,7 @@
         <v>74</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>99</v>
@@ -8796,18 +8835,18 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
@@ -8819,15 +8858,17 @@
         <v>74</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>411</v>
+        <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>74</v>
@@ -8876,22 +8917,22 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>410</v>
+        <v>109</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -8899,39 +8940,43 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>414</v>
+        <v>353</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>74</v>
       </c>
@@ -8979,30 +9024,30 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9010,13 +9055,13 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>74</v>
@@ -9025,13 +9070,13 @@
         <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>417</v>
+        <v>84</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9082,13 +9127,13 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>74</v>
@@ -9103,8 +9148,317 @@
         <v>74</v>
       </c>
     </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AK71">
+  <autoFilter ref="A1:AK74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9114,7 +9468,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T12:57:48-04:00</t>
+    <t>2022-07-25T14:11:25-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T11:08:50-04:00</t>
+    <t>2022-07-27T12:20:48-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T12:20:48-04:00</t>
+    <t>2022-08-01T16:22:39-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T16:22:39-04:00</t>
+    <t>2022-08-03T13:02:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T13:02:02-04:00</t>
+    <t>2022-08-03T17:01:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-03T17:01:06-04:00</t>
+    <t>2022-08-04T11:49:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:49:08-04:00</t>
+    <t>2022-08-05T09:45:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -598,7 +598,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/paymentAccepted}
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>requiredDocument</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/requiredDocument}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/requiredDocument}
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/fundingSource}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -804,7 +804,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -822,13 +822,13 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1354,7 +1354,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1714,7 +1714,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.83203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.05859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:45:36-04:00</t>
+    <t>2022-08-05T12:05:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T14:11:25-04:00</t>
+    <t>2022-07-25T13:43:16-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1690,43 +1690,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="47.3125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="25.14453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.96484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.53515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="85.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="47.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.2265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.16015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="46.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="69.58203125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="69.52734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
+++ b/output/StructureDefinition-NatlDirEx-HealthcareService.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDirEx-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/directory-exchange/StructureDefinition/NatlDirEx-HealthcareService</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot1</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-25T13:43:16-05:00</t>
+    <t>2022-09-21T22:39:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService</t>
+    <t>http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -598,7 +598,7 @@
     <t>rating</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/rating}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/rating}
 </t>
   </si>
   <si>
@@ -612,7 +612,7 @@
     <t>newpatients</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/newpatients}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/newpatients}
 </t>
   </si>
   <si>
@@ -631,7 +631,7 @@
     <t>deliverymethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/delivery-method}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/delivery-method}
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>paymentaccepted</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/paymentAccepted}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/paymentAccepted}
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>requiredDocument</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/requiredDocument}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/requiredDocument}
 </t>
   </si>
   <si>
@@ -670,7 +670,7 @@
     <t>fundingSource</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/fundingSource}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/fundingSource}
 </t>
   </si>
   <si>
@@ -746,7 +746,7 @@
     <t>HealthcareService.providedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -782,7 +782,7 @@
     <t>Selecting a Service Category then determines the list of relevant service types that can be selected in the primary service type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceCategoryVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/HealthcareServiceCategoryVS</t>
   </si>
   <si>
     <t>.code</t>
@@ -804,7 +804,7 @@
     <t>The specific type of service that may be delivered or performed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/HealthcareServiceTypeVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/HealthcareServiceTypeVS</t>
   </si>
   <si>
     <t>.actrelationship[typeCode=COMP.act[classCode=ACT][moodCode=DEF].code</t>
@@ -822,13 +822,13 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
+    <t>http://hl7.org/fhir/us/directory-query/ValueSet/SpecialtiesVS</t>
   </si>
   <si>
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -931,7 +931,7 @@
     <t>contactpoint-availabletime</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/contactpoint-availabletime}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/contactpoint-availabletime}
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
     <t>via-intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/via-intermediary}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/directory-query/StructureDefinition/via-intermediary}
 </t>
   </si>
   <si>
@@ -1354,7 +1354,7 @@
     <t>HealthcareService.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>
@@ -1714,7 +1714,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.16015625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.0078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
